--- a/data/netdata.xlsx
+++ b/data/netdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data recovery\Uni\UQ\SLC\LADAL\SLCLADAL.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3D3D322-24BF-467B-8A92-14C19051F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016A450-EA40-4378-9BDF-3D9A0C9F8CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" xr2:uid="{247DD404-E09B-4A6B-BE6D-0F921E989AAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>from</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Jane</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -408,68 +414,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322C4FC1-44D3-4EDC-8E7D-0E3E16F15CA5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
